--- a/TEST_01.xlsx
+++ b/TEST_01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-09-02</t>
+    <t>2020-08-01</t>
   </si>
   <si>
     <t>Position:</t>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: SAMPLE MEETING 2</t>
+    <t>Purpose of Travel: AAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,40 +102,7 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>Pagsanjan to Calamba</t>
-  </si>
-  <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Prepared by:</t>
-  </si>
-  <si>
-    <t>I certify that : (1) I have reviewed the foregoing  itinerary,    (2)  the  travel  is necessary to  the service, (3) the period covered   is   reasonable   and   (4)  the expenses claimed are proper.</t>
-  </si>
-  <si>
-    <t>______________________________________________________</t>
-  </si>
-  <si>
-    <t>Approved by:</t>
-  </si>
-  <si>
-    <t>_________________________________________________</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
-    <t>Chief,FAD</t>
-  </si>
-  <si>
-    <t>OIC-Regional Director</t>
   </si>
   <si>
     <t>Appendix 11</t>
@@ -251,6 +218,9 @@
     <t>Printed Name:</t>
   </si>
   <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
     <t>JORIELYN S. CUBIO</t>
   </si>
   <si>
@@ -432,6 +402,9 @@
   </si>
   <si>
     <t>RESTITUTO B. NAÑEZ III</t>
+  </si>
+  <si>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Position</t>
@@ -548,6 +521,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
@@ -555,15 +537,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b val="0"/>
@@ -584,6 +557,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -591,15 +573,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -616,7 +589,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border/>
     <border>
       <left style="medium">
@@ -970,6 +943,28 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -981,10 +976,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -992,13 +990,119 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1006,6 +1110,42 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1014,166 +1154,10 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1181,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="487">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1710,20 +1694,62 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="5" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1731,110 +1757,353 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="40" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="5" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1869,316 +2138,457 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2187,7 +2597,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2216,453 +2626,6 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="54" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="55" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2964,10 +2927,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2986,37 +2949,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="206" t="s">
+      <c r="H1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3034,8 +2997,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3048,8 +3011,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3062,17 +3025,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="188" t="s">
+      <c r="H7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3090,55 +3053,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="195"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="184"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="187" t="s">
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3153,39 +3116,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="15.75" s="19" customFormat="1">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="192"/>
-      <c r="D13" s="184" t="s">
+      <c r="C13" s="208"/>
+      <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="185"/>
+      <c r="E13" s="199"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="196" t="s">
+      <c r="G13" s="185" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="198" t="s">
+      <c r="I13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="189" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
-      <c r="A14" s="183"/>
-      <c r="B14" s="202" t="s">
+      <c r="A14" s="197"/>
+      <c r="B14" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="203"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3195,31 +3158,33 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="197"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="199"/>
-      <c r="J14" s="201"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
+      <c r="A15" s="200" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171"/>
-      <c r="B16" s="181" t="s">
+      <c r="A16" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="172"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
@@ -3228,183 +3193,15 @@
       <c r="I16" s="175"/>
       <c r="J16" s="174"/>
     </row>
-    <row r="17" spans="1:11" customHeight="1" ht="15">
-      <c r="A17" s="177"/>
-      <c r="B17" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="178"/>
-    </row>
-    <row r="18" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A18" s="111"/>
-      <c r="E18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="179"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="J19" s="179"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="216" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="217"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="212"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
-    </row>
-    <row r="21" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="202" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="212"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="216"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="178"/>
-    </row>
-    <row r="23" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A23" s="216"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="179"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="216"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="111"/>
-      <c r="J24" s="179"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="J25" s="179"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="J26" s="179"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="211" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="212"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="212"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="214"/>
-    </row>
-    <row r="28" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A28" s="202" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="202" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="212"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="214"/>
-    </row>
-    <row r="29" spans="1:11" customHeight="1" ht="15">
-      <c r="A29" s="215" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="212"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="215" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="212"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="214"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="177"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="178"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A20:D24"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G13:G14"/>
@@ -3413,12 +3210,13 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3478,10 +3276,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="218" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="218"/>
+      <c r="L1" s="313" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="313"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3495,443 +3293,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="220" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="223" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="A3" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="319"/>
+      <c r="M3" s="320"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="226" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="229" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="230"/>
-      <c r="M4" s="231"/>
+      <c r="A4" s="321" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="236" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="237"/>
+      <c r="M4" s="324"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="232" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="235" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="236"/>
-      <c r="M5" s="237"/>
+      <c r="A5" s="295" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="299"/>
+      <c r="M5" s="300"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="238"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="244" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="246"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="304" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="306"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="241"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="248"/>
-      <c r="J7" s="248"/>
-      <c r="K7" s="248"/>
-      <c r="L7" s="248"/>
-      <c r="M7" s="249"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="308"/>
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="250" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="251"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="253" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="255"/>
+      <c r="A8" s="272" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="273"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="277" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="241"/>
-      <c r="B9" s="242"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="258"/>
+      <c r="A9" s="301"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="312"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="253" t="str">
+      <c r="A10" s="272" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="277" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="255"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="279"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="259"/>
-      <c r="B11" s="260"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="263"/>
-      <c r="H11" s="263"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="264"/>
+      <c r="A11" s="275"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="282"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="238" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="265" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="267"/>
-      <c r="I12" s="265" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="240"/>
-      <c r="K12" s="272" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="274"/>
+      <c r="A12" s="283" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="286" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="285"/>
+      <c r="K12" s="292" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="286" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="294"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="259"/>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="271"/>
-      <c r="M13" s="275"/>
+      <c r="A13" s="275"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="231"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="215"/>
-      <c r="B14" s="276"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="280" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="276"/>
-      <c r="F14" s="276"/>
-      <c r="G14" s="276"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="277"/>
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="254"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="280"/>
-      <c r="M14" s="281"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="215"/>
-      <c r="B15" s="276"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="316" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="296"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="296"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="277"/>
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="217" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="254"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="282">
+      <c r="L15" s="268">
         <v>4981</v>
       </c>
-      <c r="M15" s="283"/>
+      <c r="M15" s="269"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="215"/>
-      <c r="B16" s="276"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="316"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="317"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="277"/>
+      <c r="A16" s="253"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="254"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="280"/>
-      <c r="M16" s="281"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="256"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="215"/>
-      <c r="B17" s="276"/>
-      <c r="C17" s="277"/>
-      <c r="D17" s="316"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="317"/>
-      <c r="I17" s="280"/>
-      <c r="J17" s="277"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="254"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="284"/>
-      <c r="M17" s="285"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="215"/>
-      <c r="B18" s="276"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="316"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="279"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="281"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="215"/>
-      <c r="B19" s="276"/>
-      <c r="C19" s="277"/>
-      <c r="D19" s="316"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="277"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="254"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="280"/>
-      <c r="M19" s="281"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="215"/>
-      <c r="B20" s="276"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="277"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="254"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="281"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="256"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="215"/>
-      <c r="B21" s="276"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="316"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="277"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="254"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="280"/>
-      <c r="M21" s="281"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="215"/>
-      <c r="B22" s="276"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="278"/>
-      <c r="E22" s="286"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="277"/>
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="280"/>
-      <c r="M22" s="281"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="256"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="215"/>
-      <c r="B23" s="276"/>
-      <c r="C23" s="277"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="286"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="277"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="254"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="280"/>
-      <c r="M23" s="281"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="215"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="278"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="277"/>
+      <c r="A24" s="253"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="254"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="281"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="215"/>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="277"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="277"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="254"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="281"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="256"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="215"/>
-      <c r="B26" s="276"/>
-      <c r="C26" s="277"/>
-      <c r="D26" s="280"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="276"/>
-      <c r="G26" s="276"/>
-      <c r="H26" s="277"/>
-      <c r="I26" s="280"/>
-      <c r="J26" s="277"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="254"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="281"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="287"/>
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="290" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="291"/>
-      <c r="F27" s="291"/>
-      <c r="G27" s="291"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="293"/>
-      <c r="J27" s="289"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="294" t="str">
+      <c r="L27" s="264" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="295"/>
+      <c r="M27" s="265"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="297" t="s">
-        <v>58</v>
+      <c r="A28" s="241" t="s">
+        <v>47</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="300"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="300"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="302" t="s">
-        <v>60</v>
+      <c r="D28" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="245" t="s">
+        <v>49</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3939,19 +3737,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="298"/>
-      <c r="B29" s="303" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="300"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="302"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3959,27 +3757,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="286" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="286"/>
-      <c r="D30" s="286"/>
-      <c r="E30" s="286"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="304"/>
+      <c r="B30" s="247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="216"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3989,14 +3787,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="216"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4041,24 +3839,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="305" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="306"/>
-      <c r="C35" s="296" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="296"/>
-      <c r="E35" s="296"/>
-      <c r="F35" s="296"/>
-      <c r="G35" s="296"/>
-      <c r="H35" s="307"/>
+      <c r="A35" s="250" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="227"/>
+      <c r="C35" s="218" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4079,12 +3877,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="308" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="309"/>
+      <c r="A37" s="251" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4092,11 +3890,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4117,24 +3915,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="305" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="306"/>
-      <c r="C39" s="299" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="310"/>
+      <c r="A39" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="227"/>
+      <c r="C39" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4142,37 +3940,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="F40" s="296"/>
-      <c r="G40" s="296"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="296"/>
-      <c r="L40" s="296"/>
-      <c r="M40" s="307"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="235"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="229" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="230"/>
-      <c r="C41" s="299" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="310"/>
+      <c r="A41" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="237"/>
+      <c r="C41" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4209,113 +4007,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="238" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="240"/>
+    </row>
+    <row r="45" spans="1:13" customHeight="1" ht="13.5">
+      <c r="A45" s="198" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="240"/>
+      <c r="H45" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="240"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A46" s="220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="226" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="220" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="232" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="233"/>
+      <c r="K46" s="234" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="210" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="211"/>
+    </row>
+    <row r="47" spans="1:13" customHeight="1" ht="32.25">
+      <c r="A47" s="220"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
+      <c r="L47" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A48" s="221"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="329" t="s">
+      <c r="I48" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="330"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330"/>
-      <c r="F44" s="330"/>
-      <c r="G44" s="330"/>
-      <c r="H44" s="330"/>
-      <c r="I44" s="330"/>
-      <c r="J44" s="330"/>
-      <c r="K44" s="330"/>
-      <c r="L44" s="330"/>
-      <c r="M44" s="331"/>
-    </row>
-    <row r="45" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A45" s="184" t="s">
+      <c r="J48" s="213"/>
+      <c r="K48" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="330"/>
-      <c r="C45" s="330"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="330"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="331"/>
-      <c r="H45" s="184" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="330"/>
-      <c r="J45" s="330"/>
-      <c r="K45" s="330"/>
-      <c r="L45" s="330"/>
-      <c r="M45" s="331"/>
-    </row>
-    <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="318" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="320" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="321"/>
-      <c r="D46" s="321"/>
-      <c r="E46" s="324" t="s">
+      <c r="L48" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="306"/>
-      <c r="G46" s="325"/>
-      <c r="H46" s="318" t="s">
+      <c r="M48" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="I46" s="326" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="327"/>
-      <c r="K46" s="328" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" s="311" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="312"/>
-    </row>
-    <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="318"/>
-      <c r="B47" s="320"/>
-      <c r="C47" s="321"/>
-      <c r="D47" s="321"/>
-      <c r="E47" s="324"/>
-      <c r="F47" s="306"/>
-      <c r="G47" s="325"/>
-      <c r="H47" s="318"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="327"/>
-      <c r="K47" s="328"/>
-      <c r="L47" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="319"/>
-      <c r="B48" s="322"/>
-      <c r="C48" s="323"/>
-      <c r="D48" s="323"/>
-      <c r="E48" s="271"/>
-      <c r="F48" s="260"/>
-      <c r="G48" s="275"/>
-      <c r="H48" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="I48" s="313" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="314"/>
-      <c r="K48" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4353,9 +4151,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="315"/>
-      <c r="F51" s="299"/>
-      <c r="G51" s="310"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="216"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4426,6 +4224,86 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:M9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="E51:G51"/>
@@ -4442,86 +4320,6 @@
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="H45:M45"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="D10:M11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:M9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4588,260 +4386,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="332" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
+      <c r="AB1" s="474" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="333" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="335"/>
-      <c r="AB3" s="336" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC3" s="337"/>
-      <c r="AD3" s="337"/>
-      <c r="AE3" s="337"/>
-      <c r="AF3" s="337"/>
-      <c r="AG3" s="338"/>
+      <c r="A3" s="475" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="476"/>
+      <c r="T3" s="476"/>
+      <c r="U3" s="476"/>
+      <c r="V3" s="476"/>
+      <c r="W3" s="476"/>
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="478" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="479"/>
+      <c r="AG3" s="480"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="339" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="340"/>
-      <c r="N4" s="340"/>
-      <c r="O4" s="340"/>
-      <c r="P4" s="340"/>
-      <c r="Q4" s="340"/>
-      <c r="R4" s="340"/>
-      <c r="S4" s="340"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="340"/>
-      <c r="V4" s="340"/>
-      <c r="W4" s="340"/>
-      <c r="X4" s="340"/>
-      <c r="Y4" s="340"/>
-      <c r="Z4" s="340"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="342"/>
-      <c r="AC4" s="343"/>
-      <c r="AD4" s="343"/>
-      <c r="AE4" s="343"/>
-      <c r="AF4" s="343"/>
-      <c r="AG4" s="344"/>
+      <c r="A4" s="481" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482"/>
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="482"/>
+      <c r="Y4" s="482"/>
+      <c r="Z4" s="482"/>
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="485"/>
+      <c r="AG4" s="486"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="363" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="364"/>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
-      <c r="G5" s="364"/>
-      <c r="H5" s="364"/>
-      <c r="I5" s="364"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="364"/>
-      <c r="L5" s="364"/>
-      <c r="M5" s="364"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="364"/>
-      <c r="Q5" s="364"/>
-      <c r="R5" s="364"/>
-      <c r="S5" s="364"/>
-      <c r="T5" s="364"/>
-      <c r="U5" s="364"/>
-      <c r="V5" s="364"/>
-      <c r="W5" s="364"/>
-      <c r="X5" s="364"/>
-      <c r="Y5" s="364"/>
-      <c r="Z5" s="364"/>
-      <c r="AA5" s="365"/>
-      <c r="AB5" s="376" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5" s="377"/>
-      <c r="AD5" s="377"/>
-      <c r="AE5" s="377"/>
-      <c r="AF5" s="377"/>
-      <c r="AG5" s="378"/>
+      <c r="A5" s="440" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="441"/>
+      <c r="Q5" s="441"/>
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="441"/>
+      <c r="V5" s="441"/>
+      <c r="W5" s="441"/>
+      <c r="X5" s="441"/>
+      <c r="Y5" s="441"/>
+      <c r="Z5" s="441"/>
+      <c r="AA5" s="442"/>
+      <c r="AB5" s="456" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" s="457"/>
+      <c r="AD5" s="457"/>
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="457"/>
+      <c r="AG5" s="458"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="363"/>
-      <c r="B6" s="364"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="364"/>
-      <c r="E6" s="364"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="364"/>
-      <c r="O6" s="364"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="364"/>
-      <c r="R6" s="364"/>
-      <c r="S6" s="364"/>
-      <c r="T6" s="364"/>
-      <c r="U6" s="364"/>
-      <c r="V6" s="364"/>
-      <c r="W6" s="364"/>
-      <c r="X6" s="364"/>
-      <c r="Y6" s="364"/>
-      <c r="Z6" s="364"/>
-      <c r="AA6" s="365"/>
-      <c r="AB6" s="379" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" s="380"/>
-      <c r="AD6" s="380"/>
-      <c r="AE6" s="380"/>
-      <c r="AF6" s="380"/>
-      <c r="AG6" s="381"/>
+      <c r="A6" s="440"/>
+      <c r="B6" s="441"/>
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="441"/>
+      <c r="J6" s="441"/>
+      <c r="K6" s="441"/>
+      <c r="L6" s="441"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="U6" s="441"/>
+      <c r="V6" s="441"/>
+      <c r="W6" s="441"/>
+      <c r="X6" s="441"/>
+      <c r="Y6" s="441"/>
+      <c r="Z6" s="441"/>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="459" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="460"/>
+      <c r="AD6" s="460"/>
+      <c r="AE6" s="460"/>
+      <c r="AF6" s="460"/>
+      <c r="AG6" s="461"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="366"/>
-      <c r="B7" s="367"/>
-      <c r="C7" s="367"/>
-      <c r="D7" s="367"/>
-      <c r="E7" s="367"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="367"/>
-      <c r="H7" s="367"/>
-      <c r="I7" s="367"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="367"/>
-      <c r="L7" s="367"/>
-      <c r="M7" s="367"/>
-      <c r="N7" s="367"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="367"/>
-      <c r="Q7" s="367"/>
-      <c r="R7" s="367"/>
-      <c r="S7" s="367"/>
-      <c r="T7" s="367"/>
-      <c r="U7" s="367"/>
-      <c r="V7" s="367"/>
-      <c r="W7" s="367"/>
-      <c r="X7" s="367"/>
-      <c r="Y7" s="367"/>
-      <c r="Z7" s="367"/>
-      <c r="AA7" s="368"/>
-      <c r="AB7" s="382"/>
-      <c r="AC7" s="382"/>
-      <c r="AD7" s="382"/>
-      <c r="AE7" s="382"/>
-      <c r="AF7" s="382"/>
-      <c r="AG7" s="383"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="444"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="444"/>
+      <c r="X7" s="444"/>
+      <c r="Y7" s="444"/>
+      <c r="Z7" s="444"/>
+      <c r="AA7" s="445"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="462"/>
+      <c r="AD7" s="462"/>
+      <c r="AE7" s="462"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="463"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="345" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="346"/>
-      <c r="C8" s="347"/>
+      <c r="A8" s="446" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="447"/>
+      <c r="C8" s="448"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="373"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="373"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="373"/>
-      <c r="K8" s="373"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="373"/>
-      <c r="N8" s="373"/>
-      <c r="O8" s="373"/>
-      <c r="P8" s="373"/>
-      <c r="Q8" s="373"/>
-      <c r="R8" s="373"/>
-      <c r="S8" s="373"/>
-      <c r="T8" s="373"/>
-      <c r="U8" s="373"/>
-      <c r="V8" s="373"/>
-      <c r="W8" s="373"/>
-      <c r="X8" s="373"/>
-      <c r="Y8" s="373"/>
-      <c r="Z8" s="373"/>
-      <c r="AA8" s="373"/>
-      <c r="AB8" s="373"/>
-      <c r="AC8" s="373"/>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="373"/>
-      <c r="AF8" s="373"/>
-      <c r="AG8" s="374"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="347"/>
+      <c r="I8" s="347"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="347"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="348"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="348"/>
-      <c r="B9" s="349"/>
-      <c r="C9" s="350"/>
+      <c r="A9" s="449"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4850,13 +4648,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4870,26 +4668,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="369"/>
-      <c r="B10" s="370"/>
-      <c r="C10" s="371"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="375"/>
-      <c r="K10" s="375"/>
-      <c r="L10" s="375"/>
-      <c r="M10" s="375"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="375"/>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="361"/>
-      <c r="T10" s="361"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4906,110 +4704,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="345" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="346"/>
-      <c r="C11" s="347"/>
+      <c r="A11" s="446" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="351" t="str">
+      <c r="E11" s="464" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="346"/>
-      <c r="G11" s="346"/>
-      <c r="H11" s="346"/>
-      <c r="I11" s="346"/>
-      <c r="J11" s="346"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="346"/>
-      <c r="M11" s="346"/>
-      <c r="N11" s="346"/>
-      <c r="O11" s="346"/>
-      <c r="P11" s="346"/>
-      <c r="Q11" s="346"/>
-      <c r="R11" s="346"/>
-      <c r="S11" s="353" t="s">
-        <v>105</v>
-      </c>
-      <c r="T11" s="354"/>
-      <c r="U11" s="354"/>
-      <c r="V11" s="354"/>
-      <c r="W11" s="354"/>
-      <c r="X11" s="354"/>
-      <c r="Y11" s="354"/>
-      <c r="Z11" s="354"/>
-      <c r="AA11" s="355"/>
-      <c r="AB11" s="356" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC11" s="356"/>
-      <c r="AD11" s="356"/>
-      <c r="AE11" s="356"/>
-      <c r="AF11" s="356"/>
-      <c r="AG11" s="357"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
+      <c r="P11" s="447"/>
+      <c r="Q11" s="447"/>
+      <c r="R11" s="447"/>
+      <c r="S11" s="466" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="467"/>
+      <c r="U11" s="467"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="467"/>
+      <c r="X11" s="467"/>
+      <c r="Y11" s="467"/>
+      <c r="Z11" s="467"/>
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="469"/>
+      <c r="AD11" s="469"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="469"/>
+      <c r="AG11" s="470"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="348"/>
-      <c r="B12" s="349"/>
-      <c r="C12" s="350"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="349"/>
-      <c r="I12" s="349"/>
-      <c r="J12" s="349"/>
-      <c r="K12" s="349"/>
-      <c r="L12" s="349"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="349"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="358"/>
-      <c r="T12" s="359"/>
-      <c r="U12" s="359"/>
-      <c r="V12" s="359"/>
-      <c r="W12" s="359"/>
-      <c r="X12" s="359"/>
-      <c r="Y12" s="359"/>
-      <c r="Z12" s="359"/>
-      <c r="AA12" s="360"/>
-      <c r="AB12" s="361"/>
-      <c r="AC12" s="361"/>
-      <c r="AD12" s="361"/>
-      <c r="AE12" s="361"/>
-      <c r="AF12" s="361"/>
-      <c r="AG12" s="362"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="471"/>
+      <c r="T12" s="472"/>
+      <c r="U12" s="472"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="472"/>
+      <c r="X12" s="472"/>
+      <c r="Y12" s="472"/>
+      <c r="Z12" s="472"/>
+      <c r="AA12" s="473"/>
+      <c r="AB12" s="340"/>
+      <c r="AC12" s="340"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="341"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="385" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="386"/>
-      <c r="C13" s="387"/>
+      <c r="A13" s="428" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="391" t="str">
+      <c r="E13" s="434" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="386"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="386"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="386"/>
-      <c r="K13" s="386"/>
-      <c r="L13" s="386"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="386"/>
-      <c r="Q13" s="386"/>
-      <c r="R13" s="386"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="429"/>
+      <c r="R13" s="429"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5028,24 +4826,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="388"/>
-      <c r="B14" s="389"/>
-      <c r="C14" s="390"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="389"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="389"/>
-      <c r="Q14" s="389"/>
-      <c r="R14" s="389"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="432"/>
+      <c r="Q14" s="432"/>
+      <c r="R14" s="432"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5064,47 +4862,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="393" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="394"/>
-      <c r="C15" s="394"/>
-      <c r="D15" s="394"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="394"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="394"/>
-      <c r="L15" s="394"/>
-      <c r="M15" s="394"/>
-      <c r="N15" s="394"/>
-      <c r="O15" s="394"/>
-      <c r="P15" s="394"/>
-      <c r="Q15" s="395"/>
-      <c r="R15" s="396" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="397"/>
-      <c r="T15" s="397"/>
-      <c r="U15" s="397"/>
-      <c r="V15" s="398"/>
-      <c r="W15" s="396" t="s">
-        <v>52</v>
-      </c>
-      <c r="X15" s="394"/>
-      <c r="Y15" s="394"/>
-      <c r="Z15" s="394"/>
-      <c r="AA15" s="395"/>
-      <c r="AB15" s="396" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC15" s="394"/>
-      <c r="AD15" s="394"/>
-      <c r="AE15" s="394"/>
-      <c r="AF15" s="394"/>
-      <c r="AG15" s="399"/>
+      <c r="A15" s="436" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="396"/>
+      <c r="M15" s="396"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="395" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="438"/>
+      <c r="T15" s="438"/>
+      <c r="U15" s="438"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="395" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="396"/>
+      <c r="Y15" s="396"/>
+      <c r="Z15" s="396"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="395" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="396"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5145,23 +4943,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="296" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="296"/>
-      <c r="I17" s="296"/>
-      <c r="J17" s="296"/>
-      <c r="K17" s="296"/>
-      <c r="L17" s="296"/>
-      <c r="M17" s="296"/>
-      <c r="N17" s="296"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="296"/>
+      <c r="B17" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5173,34 +4971,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="416" t="str">
+      <c r="AB17" s="414" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="417"/>
-      <c r="AD17" s="417"/>
-      <c r="AE17" s="417"/>
-      <c r="AF17" s="417"/>
-      <c r="AG17" s="418"/>
+      <c r="AC17" s="415"/>
+      <c r="AD17" s="415"/>
+      <c r="AE17" s="415"/>
+      <c r="AF17" s="415"/>
+      <c r="AG17" s="416"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="296"/>
-      <c r="I18" s="296"/>
-      <c r="J18" s="296"/>
-      <c r="K18" s="296"/>
-      <c r="L18" s="296"/>
-      <c r="M18" s="296"/>
-      <c r="N18" s="296"/>
-      <c r="O18" s="296"/>
-      <c r="P18" s="296"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5222,21 +5020,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
-      <c r="J19" s="296"/>
-      <c r="K19" s="296"/>
-      <c r="L19" s="296"/>
-      <c r="M19" s="296"/>
-      <c r="N19" s="296"/>
-      <c r="O19" s="296"/>
-      <c r="P19" s="296"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5295,7 +5093,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5333,7 +5131,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5371,7 +5169,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5409,7 +5207,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5447,7 +5245,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5485,7 +5283,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5523,7 +5321,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5595,25 +5393,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="419" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="420"/>
-      <c r="C29" s="420"/>
-      <c r="D29" s="420"/>
-      <c r="E29" s="420"/>
-      <c r="F29" s="420"/>
-      <c r="G29" s="420"/>
-      <c r="H29" s="420"/>
-      <c r="I29" s="420"/>
-      <c r="J29" s="420"/>
-      <c r="K29" s="420"/>
-      <c r="L29" s="420"/>
-      <c r="M29" s="420"/>
-      <c r="N29" s="420"/>
-      <c r="O29" s="420"/>
-      <c r="P29" s="420"/>
-      <c r="Q29" s="421"/>
+      <c r="A29" s="417" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="418"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="418"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="418"/>
+      <c r="L29" s="418"/>
+      <c r="M29" s="418"/>
+      <c r="N29" s="418"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="418"/>
+      <c r="Q29" s="419"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5624,56 +5422,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="422" t="str">
+      <c r="AB29" s="420" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="423"/>
-      <c r="AD29" s="423"/>
-      <c r="AE29" s="423"/>
-      <c r="AF29" s="423"/>
-      <c r="AG29" s="424"/>
+      <c r="AC29" s="421"/>
+      <c r="AD29" s="421"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="425" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="425"/>
-      <c r="D30" s="425"/>
-      <c r="E30" s="425"/>
-      <c r="F30" s="425"/>
-      <c r="G30" s="425"/>
-      <c r="H30" s="425"/>
-      <c r="I30" s="425"/>
-      <c r="J30" s="425"/>
-      <c r="K30" s="425"/>
-      <c r="L30" s="425"/>
-      <c r="M30" s="425"/>
-      <c r="N30" s="425"/>
-      <c r="O30" s="425"/>
-      <c r="P30" s="425"/>
-      <c r="Q30" s="425"/>
-      <c r="R30" s="425"/>
-      <c r="S30" s="425"/>
-      <c r="T30" s="425"/>
-      <c r="U30" s="425"/>
-      <c r="V30" s="425"/>
-      <c r="W30" s="425"/>
-      <c r="X30" s="425"/>
-      <c r="Y30" s="425"/>
-      <c r="Z30" s="425"/>
-      <c r="AA30" s="425"/>
-      <c r="AB30" s="426"/>
-      <c r="AC30" s="426"/>
-      <c r="AD30" s="426"/>
-      <c r="AE30" s="426"/>
-      <c r="AF30" s="426"/>
-      <c r="AG30" s="427"/>
+        <v>47</v>
+      </c>
+      <c r="B30" s="423" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="423"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="423"/>
+      <c r="L30" s="423"/>
+      <c r="M30" s="423"/>
+      <c r="N30" s="423"/>
+      <c r="O30" s="423"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="423"/>
+      <c r="R30" s="423"/>
+      <c r="S30" s="423"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="423"/>
+      <c r="V30" s="423"/>
+      <c r="W30" s="423"/>
+      <c r="X30" s="423"/>
+      <c r="Y30" s="423"/>
+      <c r="Z30" s="423"/>
+      <c r="AA30" s="423"/>
+      <c r="AB30" s="424"/>
+      <c r="AC30" s="424"/>
+      <c r="AD30" s="424"/>
+      <c r="AE30" s="424"/>
+      <c r="AF30" s="424"/>
+      <c r="AG30" s="425"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5683,7 +5481,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5718,80 +5516,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="428" t="str">
+      <c r="B32" s="426" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="417"/>
-      <c r="D32" s="417"/>
-      <c r="E32" s="417"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="417"/>
-      <c r="H32" s="417"/>
-      <c r="I32" s="417"/>
-      <c r="J32" s="417"/>
-      <c r="K32" s="417"/>
-      <c r="L32" s="417"/>
-      <c r="M32" s="417"/>
-      <c r="N32" s="417"/>
-      <c r="O32" s="417"/>
-      <c r="P32" s="417"/>
-      <c r="Q32" s="417"/>
-      <c r="R32" s="417"/>
-      <c r="S32" s="417"/>
-      <c r="T32" s="417"/>
-      <c r="U32" s="417"/>
-      <c r="V32" s="417"/>
-      <c r="W32" s="417"/>
-      <c r="X32" s="417"/>
-      <c r="Y32" s="417"/>
-      <c r="Z32" s="417"/>
-      <c r="AA32" s="417"/>
-      <c r="AB32" s="417"/>
-      <c r="AC32" s="417"/>
-      <c r="AD32" s="417"/>
-      <c r="AE32" s="417"/>
-      <c r="AF32" s="417"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="415"/>
+      <c r="V32" s="415"/>
+      <c r="W32" s="415"/>
+      <c r="X32" s="415"/>
+      <c r="Y32" s="415"/>
+      <c r="Z32" s="415"/>
+      <c r="AA32" s="415"/>
+      <c r="AB32" s="415"/>
+      <c r="AC32" s="415"/>
+      <c r="AD32" s="415"/>
+      <c r="AE32" s="415"/>
+      <c r="AF32" s="415"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="384" t="str">
+      <c r="B33" s="427" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="384"/>
-      <c r="D33" s="384"/>
-      <c r="E33" s="384"/>
-      <c r="F33" s="384"/>
-      <c r="G33" s="384"/>
-      <c r="H33" s="384"/>
-      <c r="I33" s="384"/>
-      <c r="J33" s="384"/>
-      <c r="K33" s="384"/>
-      <c r="L33" s="384"/>
-      <c r="M33" s="384"/>
-      <c r="N33" s="384"/>
-      <c r="O33" s="384"/>
-      <c r="P33" s="384"/>
-      <c r="Q33" s="384"/>
-      <c r="R33" s="384"/>
-      <c r="S33" s="384"/>
-      <c r="T33" s="384"/>
-      <c r="U33" s="384"/>
-      <c r="V33" s="384"/>
-      <c r="W33" s="384"/>
-      <c r="X33" s="384"/>
-      <c r="Y33" s="384"/>
-      <c r="Z33" s="384"/>
-      <c r="AA33" s="384"/>
-      <c r="AB33" s="384"/>
-      <c r="AC33" s="384"/>
-      <c r="AD33" s="384"/>
-      <c r="AE33" s="384"/>
-      <c r="AF33" s="384"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
+      <c r="M33" s="427"/>
+      <c r="N33" s="427"/>
+      <c r="O33" s="427"/>
+      <c r="P33" s="427"/>
+      <c r="Q33" s="427"/>
+      <c r="R33" s="427"/>
+      <c r="S33" s="427"/>
+      <c r="T33" s="427"/>
+      <c r="U33" s="427"/>
+      <c r="V33" s="427"/>
+      <c r="W33" s="427"/>
+      <c r="X33" s="427"/>
+      <c r="Y33" s="427"/>
+      <c r="Z33" s="427"/>
+      <c r="AA33" s="427"/>
+      <c r="AB33" s="427"/>
+      <c r="AC33" s="427"/>
+      <c r="AD33" s="427"/>
+      <c r="AE33" s="427"/>
+      <c r="AF33" s="427"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5808,19 +5606,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="384"/>
-      <c r="M34" s="384"/>
-      <c r="N34" s="384"/>
-      <c r="O34" s="384"/>
-      <c r="P34" s="384"/>
-      <c r="Q34" s="384"/>
-      <c r="R34" s="384"/>
-      <c r="S34" s="384"/>
-      <c r="T34" s="384"/>
-      <c r="U34" s="384"/>
-      <c r="V34" s="384"/>
-      <c r="W34" s="384"/>
-      <c r="X34" s="384"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="427"/>
+      <c r="N34" s="427"/>
+      <c r="O34" s="427"/>
+      <c r="P34" s="427"/>
+      <c r="Q34" s="427"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
+      <c r="X34" s="427"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5845,19 +5643,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="384"/>
-      <c r="M35" s="384"/>
-      <c r="N35" s="384"/>
-      <c r="O35" s="384"/>
-      <c r="P35" s="384"/>
-      <c r="Q35" s="384"/>
-      <c r="R35" s="384"/>
-      <c r="S35" s="384"/>
-      <c r="T35" s="384"/>
-      <c r="U35" s="384"/>
-      <c r="V35" s="384"/>
-      <c r="W35" s="384"/>
-      <c r="X35" s="384"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5872,10 +5670,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5912,47 +5710,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="411" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="412"/>
-      <c r="C37" s="412"/>
-      <c r="D37" s="412"/>
-      <c r="E37" s="412"/>
-      <c r="F37" s="412"/>
-      <c r="G37" s="412"/>
-      <c r="H37" s="412"/>
-      <c r="I37" s="412"/>
-      <c r="J37" s="412"/>
-      <c r="K37" s="412"/>
-      <c r="L37" s="412"/>
-      <c r="M37" s="412"/>
-      <c r="N37" s="412"/>
-      <c r="O37" s="412"/>
-      <c r="P37" s="412"/>
-      <c r="Q37" s="412"/>
-      <c r="R37" s="412"/>
-      <c r="S37" s="412" t="s">
-        <v>120</v>
-      </c>
-      <c r="T37" s="412"/>
-      <c r="U37" s="412"/>
-      <c r="V37" s="412"/>
-      <c r="W37" s="412"/>
-      <c r="X37" s="413" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y37" s="413"/>
-      <c r="Z37" s="413"/>
-      <c r="AA37" s="413"/>
-      <c r="AB37" s="413"/>
-      <c r="AC37" s="414" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD37" s="414"/>
-      <c r="AE37" s="414"/>
-      <c r="AF37" s="414"/>
-      <c r="AG37" s="415"/>
+      <c r="A37" s="409" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="410"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="410"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410" t="s">
+        <v>110</v>
+      </c>
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
+      <c r="X37" s="411" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y37" s="411"/>
+      <c r="Z37" s="411"/>
+      <c r="AA37" s="411"/>
+      <c r="AB37" s="411"/>
+      <c r="AC37" s="412" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="412"/>
+      <c r="AG37" s="413"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6032,7 +5830,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6069,10 +5867,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6091,21 +5889,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="T41" s="400" t="s">
-        <v>125</v>
-      </c>
-      <c r="U41" s="400"/>
-      <c r="V41" s="400"/>
-      <c r="W41" s="400"/>
-      <c r="X41" s="400"/>
-      <c r="Y41" s="400"/>
-      <c r="Z41" s="400"/>
-      <c r="AA41" s="400"/>
-      <c r="AB41" s="400"/>
-      <c r="AC41" s="400"/>
-      <c r="AD41" s="400"/>
+        <v>114</v>
+      </c>
+      <c r="T41" s="398" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="398"/>
+      <c r="Z41" s="398"/>
+      <c r="AA41" s="398"/>
+      <c r="AB41" s="398"/>
+      <c r="AC41" s="398"/>
+      <c r="AD41" s="398"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6115,7 +5913,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6132,31 +5930,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="401"/>
-      <c r="T42" s="402"/>
-      <c r="U42" s="402"/>
-      <c r="V42" s="402"/>
-      <c r="W42" s="402"/>
-      <c r="X42" s="402"/>
-      <c r="Y42" s="402"/>
-      <c r="Z42" s="402"/>
-      <c r="AA42" s="402"/>
-      <c r="AB42" s="402"/>
-      <c r="AC42" s="402"/>
-      <c r="AD42" s="402"/>
-      <c r="AE42" s="402"/>
-      <c r="AF42" s="402"/>
-      <c r="AG42" s="403"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="400"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="400"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="400"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="400"/>
+      <c r="AC42" s="400"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="400"/>
+      <c r="AF42" s="400"/>
+      <c r="AG42" s="401"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="410"/>
-      <c r="B43" s="361"/>
-      <c r="C43" s="361"/>
-      <c r="D43" s="361"/>
-      <c r="E43" s="361"/>
-      <c r="F43" s="361"/>
-      <c r="G43" s="361"/>
+      <c r="A43" s="408"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6168,28 +5966,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="404"/>
-      <c r="T43" s="405"/>
-      <c r="U43" s="405"/>
-      <c r="V43" s="405"/>
-      <c r="W43" s="405"/>
-      <c r="X43" s="405"/>
-      <c r="Y43" s="405"/>
-      <c r="Z43" s="405"/>
-      <c r="AA43" s="405"/>
-      <c r="AB43" s="405"/>
-      <c r="AC43" s="405"/>
-      <c r="AD43" s="405"/>
-      <c r="AE43" s="405"/>
-      <c r="AF43" s="405"/>
-      <c r="AG43" s="406"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="403"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="404"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6206,67 +6004,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="404"/>
-      <c r="T44" s="405"/>
-      <c r="U44" s="405"/>
-      <c r="V44" s="405"/>
-      <c r="W44" s="405"/>
-      <c r="X44" s="405"/>
-      <c r="Y44" s="405"/>
-      <c r="Z44" s="405"/>
-      <c r="AA44" s="405"/>
-      <c r="AB44" s="405"/>
-      <c r="AC44" s="405"/>
-      <c r="AD44" s="405"/>
-      <c r="AE44" s="405"/>
-      <c r="AF44" s="405"/>
-      <c r="AG44" s="406"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="403"/>
+      <c r="U44" s="403"/>
+      <c r="V44" s="403"/>
+      <c r="W44" s="403"/>
+      <c r="X44" s="403"/>
+      <c r="Y44" s="403"/>
+      <c r="Z44" s="403"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="404"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="410"/>
-      <c r="B45" s="361"/>
-      <c r="C45" s="361"/>
-      <c r="D45" s="361"/>
-      <c r="E45" s="361"/>
-      <c r="F45" s="361"/>
-      <c r="G45" s="361"/>
-      <c r="H45" s="361"/>
-      <c r="I45" s="361"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="361"/>
-      <c r="L45" s="361"/>
-      <c r="M45" s="361"/>
-      <c r="N45" s="361"/>
-      <c r="O45" s="361"/>
-      <c r="P45" s="361"/>
-      <c r="Q45" s="361"/>
-      <c r="R45" s="362"/>
-      <c r="S45" s="404"/>
-      <c r="T45" s="405"/>
-      <c r="U45" s="405"/>
-      <c r="V45" s="405"/>
-      <c r="W45" s="405"/>
-      <c r="X45" s="405"/>
-      <c r="Y45" s="405"/>
-      <c r="Z45" s="405"/>
-      <c r="AA45" s="405"/>
-      <c r="AB45" s="405"/>
-      <c r="AC45" s="405"/>
-      <c r="AD45" s="405"/>
-      <c r="AE45" s="405"/>
-      <c r="AF45" s="405"/>
-      <c r="AG45" s="406"/>
+      <c r="A45" s="408"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="340"/>
+      <c r="L45" s="340"/>
+      <c r="M45" s="340"/>
+      <c r="N45" s="340"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="340"/>
+      <c r="Q45" s="340"/>
+      <c r="R45" s="341"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="403"/>
+      <c r="U45" s="403"/>
+      <c r="V45" s="403"/>
+      <c r="W45" s="403"/>
+      <c r="X45" s="403"/>
+      <c r="Y45" s="403"/>
+      <c r="Z45" s="403"/>
+      <c r="AA45" s="403"/>
+      <c r="AB45" s="403"/>
+      <c r="AC45" s="403"/>
+      <c r="AD45" s="403"/>
+      <c r="AE45" s="403"/>
+      <c r="AF45" s="403"/>
+      <c r="AG45" s="404"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6282,28 +6080,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="404"/>
-      <c r="T46" s="405"/>
-      <c r="U46" s="405"/>
-      <c r="V46" s="405"/>
-      <c r="W46" s="405"/>
-      <c r="X46" s="405"/>
-      <c r="Y46" s="405"/>
-      <c r="Z46" s="405"/>
-      <c r="AA46" s="405"/>
-      <c r="AB46" s="405"/>
-      <c r="AC46" s="405"/>
-      <c r="AD46" s="405"/>
-      <c r="AE46" s="405"/>
-      <c r="AF46" s="405"/>
-      <c r="AG46" s="406"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="403"/>
+      <c r="U46" s="403"/>
+      <c r="V46" s="403"/>
+      <c r="W46" s="403"/>
+      <c r="X46" s="403"/>
+      <c r="Y46" s="403"/>
+      <c r="Z46" s="403"/>
+      <c r="AA46" s="403"/>
+      <c r="AB46" s="403"/>
+      <c r="AC46" s="403"/>
+      <c r="AD46" s="403"/>
+      <c r="AE46" s="403"/>
+      <c r="AF46" s="403"/>
+      <c r="AG46" s="404"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6320,21 +6118,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="404"/>
-      <c r="T47" s="405"/>
-      <c r="U47" s="405"/>
-      <c r="V47" s="405"/>
-      <c r="W47" s="405"/>
-      <c r="X47" s="405"/>
-      <c r="Y47" s="405"/>
-      <c r="Z47" s="405"/>
-      <c r="AA47" s="405"/>
-      <c r="AB47" s="405"/>
-      <c r="AC47" s="405"/>
-      <c r="AD47" s="405"/>
-      <c r="AE47" s="405"/>
-      <c r="AF47" s="405"/>
-      <c r="AG47" s="406"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="403"/>
+      <c r="U47" s="403"/>
+      <c r="V47" s="403"/>
+      <c r="W47" s="403"/>
+      <c r="X47" s="403"/>
+      <c r="Y47" s="403"/>
+      <c r="Z47" s="403"/>
+      <c r="AA47" s="403"/>
+      <c r="AB47" s="403"/>
+      <c r="AC47" s="403"/>
+      <c r="AD47" s="403"/>
+      <c r="AE47" s="403"/>
+      <c r="AF47" s="403"/>
+      <c r="AG47" s="404"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6356,344 +6154,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="407"/>
-      <c r="T48" s="408"/>
-      <c r="U48" s="408"/>
-      <c r="V48" s="408"/>
-      <c r="W48" s="408"/>
-      <c r="X48" s="408"/>
-      <c r="Y48" s="408"/>
-      <c r="Z48" s="408"/>
-      <c r="AA48" s="408"/>
-      <c r="AB48" s="408"/>
-      <c r="AC48" s="408"/>
-      <c r="AD48" s="408"/>
-      <c r="AE48" s="408"/>
-      <c r="AF48" s="408"/>
-      <c r="AG48" s="409"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="406"/>
+      <c r="U48" s="406"/>
+      <c r="V48" s="406"/>
+      <c r="W48" s="406"/>
+      <c r="X48" s="406"/>
+      <c r="Y48" s="406"/>
+      <c r="Z48" s="406"/>
+      <c r="AA48" s="406"/>
+      <c r="AB48" s="406"/>
+      <c r="AC48" s="406"/>
+      <c r="AD48" s="406"/>
+      <c r="AE48" s="406"/>
+      <c r="AF48" s="406"/>
+      <c r="AG48" s="407"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="429" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="430"/>
-      <c r="C49" s="430"/>
-      <c r="D49" s="430"/>
-      <c r="E49" s="433"/>
-      <c r="F49" s="361"/>
-      <c r="G49" s="361"/>
-      <c r="H49" s="361"/>
-      <c r="I49" s="361"/>
-      <c r="J49" s="361"/>
-      <c r="K49" s="361"/>
-      <c r="L49" s="361"/>
-      <c r="M49" s="361"/>
-      <c r="N49" s="361"/>
-      <c r="O49" s="361"/>
-      <c r="P49" s="361"/>
-      <c r="Q49" s="361"/>
-      <c r="R49" s="362"/>
-      <c r="S49" s="429" t="s">
-        <v>130</v>
-      </c>
-      <c r="T49" s="437"/>
-      <c r="U49" s="437"/>
-      <c r="V49" s="438"/>
-      <c r="W49" s="442"/>
-      <c r="X49" s="443"/>
-      <c r="Y49" s="443"/>
-      <c r="Z49" s="443"/>
-      <c r="AA49" s="443"/>
-      <c r="AB49" s="443"/>
-      <c r="AC49" s="443"/>
-      <c r="AD49" s="443"/>
-      <c r="AE49" s="443"/>
-      <c r="AF49" s="443"/>
-      <c r="AG49" s="444"/>
+      <c r="A49" s="349" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="375"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
+      <c r="N49" s="340"/>
+      <c r="O49" s="340"/>
+      <c r="P49" s="340"/>
+      <c r="Q49" s="340"/>
+      <c r="R49" s="341"/>
+      <c r="S49" s="349" t="s">
+        <v>120</v>
+      </c>
+      <c r="T49" s="350"/>
+      <c r="U49" s="350"/>
+      <c r="V49" s="379"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="363"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="431"/>
-      <c r="B50" s="432"/>
-      <c r="C50" s="432"/>
-      <c r="D50" s="432"/>
-      <c r="E50" s="434"/>
-      <c r="F50" s="435"/>
-      <c r="G50" s="435"/>
-      <c r="H50" s="435"/>
-      <c r="I50" s="435"/>
-      <c r="J50" s="435"/>
-      <c r="K50" s="435"/>
-      <c r="L50" s="435"/>
-      <c r="M50" s="435"/>
-      <c r="N50" s="435"/>
-      <c r="O50" s="435"/>
-      <c r="P50" s="435"/>
-      <c r="Q50" s="435"/>
-      <c r="R50" s="436"/>
-      <c r="S50" s="439"/>
-      <c r="T50" s="440"/>
-      <c r="U50" s="440"/>
-      <c r="V50" s="441"/>
-      <c r="W50" s="445"/>
-      <c r="X50" s="440"/>
-      <c r="Y50" s="440"/>
-      <c r="Z50" s="440"/>
-      <c r="AA50" s="440"/>
-      <c r="AB50" s="440"/>
-      <c r="AC50" s="440"/>
-      <c r="AD50" s="440"/>
-      <c r="AE50" s="440"/>
-      <c r="AF50" s="440"/>
-      <c r="AG50" s="446"/>
+      <c r="A50" s="376"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="329"/>
+      <c r="L50" s="329"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="352"/>
+      <c r="Z50" s="352"/>
+      <c r="AA50" s="352"/>
+      <c r="AB50" s="352"/>
+      <c r="AC50" s="352"/>
+      <c r="AD50" s="352"/>
+      <c r="AE50" s="352"/>
+      <c r="AF50" s="352"/>
+      <c r="AG50" s="365"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="447" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="448"/>
-      <c r="C51" s="448"/>
-      <c r="D51" s="449"/>
-      <c r="E51" s="451" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="452"/>
-      <c r="G51" s="452"/>
-      <c r="H51" s="452"/>
-      <c r="I51" s="452"/>
-      <c r="J51" s="452"/>
-      <c r="K51" s="452"/>
-      <c r="L51" s="452"/>
-      <c r="M51" s="452"/>
-      <c r="N51" s="452"/>
-      <c r="O51" s="452"/>
-      <c r="P51" s="452"/>
-      <c r="Q51" s="452"/>
-      <c r="R51" s="453"/>
-      <c r="S51" s="447" t="s">
-        <v>131</v>
-      </c>
-      <c r="T51" s="443"/>
-      <c r="U51" s="443"/>
-      <c r="V51" s="457"/>
-      <c r="W51" s="458" t="s">
-        <v>36</v>
-      </c>
-      <c r="X51" s="459"/>
-      <c r="Y51" s="459"/>
-      <c r="Z51" s="459"/>
-      <c r="AA51" s="459"/>
-      <c r="AB51" s="459"/>
-      <c r="AC51" s="459"/>
-      <c r="AD51" s="459"/>
-      <c r="AE51" s="459"/>
-      <c r="AF51" s="459"/>
-      <c r="AG51" s="460"/>
+      <c r="A51" s="325" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="380"/>
+      <c r="C51" s="380"/>
+      <c r="D51" s="381"/>
+      <c r="E51" s="383" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="I51" s="384"/>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="385"/>
+      <c r="S51" s="325" t="s">
+        <v>121</v>
+      </c>
+      <c r="T51" s="359"/>
+      <c r="U51" s="359"/>
+      <c r="V51" s="360"/>
+      <c r="W51" s="389" t="s">
+        <v>123</v>
+      </c>
+      <c r="X51" s="390"/>
+      <c r="Y51" s="390"/>
+      <c r="Z51" s="390"/>
+      <c r="AA51" s="390"/>
+      <c r="AB51" s="390"/>
+      <c r="AC51" s="390"/>
+      <c r="AD51" s="390"/>
+      <c r="AE51" s="390"/>
+      <c r="AF51" s="390"/>
+      <c r="AG51" s="391"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="431"/>
-      <c r="B52" s="432"/>
-      <c r="C52" s="432"/>
-      <c r="D52" s="450"/>
-      <c r="E52" s="454"/>
-      <c r="F52" s="455"/>
-      <c r="G52" s="455"/>
-      <c r="H52" s="455"/>
-      <c r="I52" s="455"/>
-      <c r="J52" s="455"/>
-      <c r="K52" s="455"/>
-      <c r="L52" s="455"/>
-      <c r="M52" s="455"/>
-      <c r="N52" s="455"/>
-      <c r="O52" s="455"/>
-      <c r="P52" s="455"/>
-      <c r="Q52" s="455"/>
-      <c r="R52" s="456"/>
-      <c r="S52" s="439"/>
-      <c r="T52" s="440"/>
-      <c r="U52" s="440"/>
-      <c r="V52" s="441"/>
-      <c r="W52" s="461"/>
-      <c r="X52" s="462"/>
-      <c r="Y52" s="462"/>
-      <c r="Z52" s="462"/>
-      <c r="AA52" s="462"/>
-      <c r="AB52" s="462"/>
-      <c r="AC52" s="462"/>
-      <c r="AD52" s="462"/>
-      <c r="AE52" s="462"/>
-      <c r="AF52" s="462"/>
-      <c r="AG52" s="463"/>
+      <c r="A52" s="376"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="386"/>
+      <c r="F52" s="387"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="388"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="361"/>
+      <c r="W52" s="392"/>
+      <c r="X52" s="393"/>
+      <c r="Y52" s="393"/>
+      <c r="Z52" s="393"/>
+      <c r="AA52" s="393"/>
+      <c r="AB52" s="393"/>
+      <c r="AC52" s="393"/>
+      <c r="AD52" s="393"/>
+      <c r="AE52" s="393"/>
+      <c r="AF52" s="393"/>
+      <c r="AG52" s="394"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="447" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="443"/>
-      <c r="C53" s="443"/>
-      <c r="D53" s="457"/>
-      <c r="E53" s="442" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="443"/>
-      <c r="G53" s="443"/>
-      <c r="H53" s="443"/>
-      <c r="I53" s="443"/>
-      <c r="J53" s="443"/>
-      <c r="K53" s="443"/>
-      <c r="L53" s="443"/>
-      <c r="M53" s="443"/>
-      <c r="N53" s="443"/>
-      <c r="O53" s="443"/>
-      <c r="P53" s="443"/>
-      <c r="Q53" s="443"/>
-      <c r="R53" s="444"/>
-      <c r="S53" s="447" t="s">
-        <v>133</v>
-      </c>
-      <c r="T53" s="443"/>
-      <c r="U53" s="443"/>
-      <c r="V53" s="457"/>
-      <c r="W53" s="442" t="s">
-        <v>135</v>
-      </c>
-      <c r="X53" s="443"/>
-      <c r="Y53" s="443"/>
-      <c r="Z53" s="443"/>
-      <c r="AA53" s="443"/>
-      <c r="AB53" s="443"/>
-      <c r="AC53" s="443"/>
-      <c r="AD53" s="443"/>
-      <c r="AE53" s="443"/>
-      <c r="AF53" s="443"/>
-      <c r="AG53" s="444"/>
+      <c r="A53" s="325" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="362" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="359"/>
+      <c r="K53" s="359"/>
+      <c r="L53" s="359"/>
+      <c r="M53" s="359"/>
+      <c r="N53" s="359"/>
+      <c r="O53" s="359"/>
+      <c r="P53" s="359"/>
+      <c r="Q53" s="359"/>
+      <c r="R53" s="363"/>
+      <c r="S53" s="325" t="s">
+        <v>124</v>
+      </c>
+      <c r="T53" s="359"/>
+      <c r="U53" s="359"/>
+      <c r="V53" s="360"/>
+      <c r="W53" s="362" t="s">
+        <v>126</v>
+      </c>
+      <c r="X53" s="359"/>
+      <c r="Y53" s="359"/>
+      <c r="Z53" s="359"/>
+      <c r="AA53" s="359"/>
+      <c r="AB53" s="359"/>
+      <c r="AC53" s="359"/>
+      <c r="AD53" s="359"/>
+      <c r="AE53" s="359"/>
+      <c r="AF53" s="359"/>
+      <c r="AG53" s="363"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="439"/>
-      <c r="B54" s="440"/>
-      <c r="C54" s="440"/>
-      <c r="D54" s="441"/>
-      <c r="E54" s="445"/>
-      <c r="F54" s="440"/>
-      <c r="G54" s="440"/>
-      <c r="H54" s="440"/>
-      <c r="I54" s="440"/>
-      <c r="J54" s="440"/>
-      <c r="K54" s="440"/>
-      <c r="L54" s="440"/>
-      <c r="M54" s="440"/>
-      <c r="N54" s="440"/>
-      <c r="O54" s="440"/>
-      <c r="P54" s="440"/>
-      <c r="Q54" s="440"/>
-      <c r="R54" s="446"/>
-      <c r="S54" s="439"/>
-      <c r="T54" s="440"/>
-      <c r="U54" s="440"/>
-      <c r="V54" s="441"/>
-      <c r="W54" s="445"/>
-      <c r="X54" s="440"/>
-      <c r="Y54" s="440"/>
-      <c r="Z54" s="440"/>
-      <c r="AA54" s="440"/>
-      <c r="AB54" s="440"/>
-      <c r="AC54" s="440"/>
-      <c r="AD54" s="440"/>
-      <c r="AE54" s="440"/>
-      <c r="AF54" s="440"/>
-      <c r="AG54" s="446"/>
+      <c r="A54" s="351"/>
+      <c r="B54" s="352"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="364"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="352"/>
+      <c r="H54" s="352"/>
+      <c r="I54" s="352"/>
+      <c r="J54" s="352"/>
+      <c r="K54" s="352"/>
+      <c r="L54" s="352"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="352"/>
+      <c r="O54" s="352"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="352"/>
+      <c r="U54" s="352"/>
+      <c r="V54" s="361"/>
+      <c r="W54" s="364"/>
+      <c r="X54" s="352"/>
+      <c r="Y54" s="352"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="352"/>
+      <c r="AB54" s="352"/>
+      <c r="AC54" s="352"/>
+      <c r="AD54" s="352"/>
+      <c r="AE54" s="352"/>
+      <c r="AF54" s="352"/>
+      <c r="AG54" s="365"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="447" t="s">
+      <c r="A55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="443"/>
-      <c r="C55" s="443"/>
-      <c r="D55" s="457"/>
-      <c r="E55" s="433"/>
-      <c r="F55" s="361"/>
-      <c r="G55" s="361"/>
-      <c r="H55" s="361"/>
-      <c r="I55" s="361"/>
-      <c r="J55" s="361"/>
-      <c r="K55" s="361"/>
-      <c r="L55" s="361"/>
-      <c r="M55" s="361"/>
-      <c r="N55" s="361"/>
-      <c r="O55" s="361"/>
-      <c r="P55" s="361"/>
-      <c r="Q55" s="361"/>
-      <c r="R55" s="362"/>
-      <c r="S55" s="447" t="s">
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="353"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="340"/>
+      <c r="K55" s="340"/>
+      <c r="L55" s="340"/>
+      <c r="M55" s="340"/>
+      <c r="N55" s="340"/>
+      <c r="O55" s="340"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="443"/>
-      <c r="U55" s="443"/>
-      <c r="V55" s="457"/>
-      <c r="W55" s="442"/>
-      <c r="X55" s="443"/>
-      <c r="Y55" s="443"/>
-      <c r="Z55" s="443"/>
-      <c r="AA55" s="443"/>
-      <c r="AB55" s="443"/>
-      <c r="AC55" s="443"/>
-      <c r="AD55" s="443"/>
-      <c r="AE55" s="443"/>
-      <c r="AF55" s="443"/>
-      <c r="AG55" s="444"/>
+      <c r="T55" s="359"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="360"/>
+      <c r="W55" s="362"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="359"/>
+      <c r="AE55" s="359"/>
+      <c r="AF55" s="359"/>
+      <c r="AG55" s="363"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="469"/>
-      <c r="B56" s="470"/>
-      <c r="C56" s="470"/>
-      <c r="D56" s="471"/>
-      <c r="E56" s="472"/>
-      <c r="F56" s="375"/>
-      <c r="G56" s="375"/>
-      <c r="H56" s="375"/>
-      <c r="I56" s="375"/>
-      <c r="J56" s="375"/>
-      <c r="K56" s="375"/>
-      <c r="L56" s="375"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="375"/>
-      <c r="O56" s="375"/>
-      <c r="P56" s="375"/>
-      <c r="Q56" s="375"/>
-      <c r="R56" s="473"/>
-      <c r="S56" s="464"/>
-      <c r="T56" s="465"/>
-      <c r="U56" s="465"/>
-      <c r="V56" s="466"/>
-      <c r="W56" s="467"/>
-      <c r="X56" s="465"/>
-      <c r="Y56" s="465"/>
-      <c r="Z56" s="465"/>
-      <c r="AA56" s="465"/>
-      <c r="AB56" s="465"/>
-      <c r="AC56" s="465"/>
-      <c r="AD56" s="465"/>
-      <c r="AE56" s="465"/>
-      <c r="AF56" s="465"/>
-      <c r="AG56" s="468"/>
+      <c r="A56" s="371"/>
+      <c r="B56" s="372"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="343"/>
+      <c r="S56" s="366"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="368"/>
+      <c r="W56" s="369"/>
+      <c r="X56" s="367"/>
+      <c r="Y56" s="367"/>
+      <c r="Z56" s="367"/>
+      <c r="AA56" s="367"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
+      <c r="AF56" s="367"/>
+      <c r="AG56" s="370"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6721,49 +6519,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="373"/>
-      <c r="AF57" s="373"/>
-      <c r="AG57" s="374"/>
+      <c r="AE57" s="347"/>
+      <c r="AF57" s="347"/>
+      <c r="AG57" s="348"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="429" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="437"/>
-      <c r="C58" s="437"/>
+      <c r="A58" s="349" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="350"/>
+      <c r="C58" s="350"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="433"/>
-      <c r="F58" s="361"/>
-      <c r="G58" s="361"/>
-      <c r="H58" s="361"/>
-      <c r="I58" s="361"/>
-      <c r="J58" s="361"/>
-      <c r="K58" s="361"/>
-      <c r="L58" s="361"/>
-      <c r="M58" s="474"/>
-      <c r="N58" s="476" t="s">
-        <v>97</v>
-      </c>
-      <c r="O58" s="477"/>
-      <c r="P58" s="477"/>
-      <c r="Q58" s="477"/>
-      <c r="R58" s="478"/>
-      <c r="S58" s="482" t="s">
-        <v>140</v>
-      </c>
-      <c r="T58" s="477"/>
-      <c r="U58" s="477"/>
-      <c r="V58" s="477"/>
-      <c r="W58" s="477"/>
-      <c r="X58" s="477"/>
-      <c r="Y58" s="477"/>
-      <c r="Z58" s="477"/>
-      <c r="AA58" s="478"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="340"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="340"/>
+      <c r="M58" s="354"/>
+      <c r="N58" s="355" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="357"/>
+      <c r="S58" s="358" t="s">
+        <v>131</v>
+      </c>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="356"/>
+      <c r="AA58" s="357"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6773,33 +6571,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="439"/>
-      <c r="B59" s="440"/>
-      <c r="C59" s="440"/>
+      <c r="A59" s="351"/>
+      <c r="B59" s="352"/>
+      <c r="C59" s="352"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="434"/>
-      <c r="F59" s="435"/>
-      <c r="G59" s="435"/>
-      <c r="H59" s="435"/>
-      <c r="I59" s="435"/>
-      <c r="J59" s="435"/>
-      <c r="K59" s="435"/>
-      <c r="L59" s="435"/>
-      <c r="M59" s="475"/>
-      <c r="N59" s="479"/>
-      <c r="O59" s="480"/>
-      <c r="P59" s="480"/>
-      <c r="Q59" s="480"/>
-      <c r="R59" s="481"/>
-      <c r="S59" s="479"/>
-      <c r="T59" s="480"/>
-      <c r="U59" s="480"/>
-      <c r="V59" s="480"/>
-      <c r="W59" s="480"/>
-      <c r="X59" s="480"/>
-      <c r="Y59" s="480"/>
-      <c r="Z59" s="480"/>
-      <c r="AA59" s="481"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="337"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="337"/>
+      <c r="X59" s="337"/>
+      <c r="Y59" s="337"/>
+      <c r="Z59" s="337"/>
+      <c r="AA59" s="338"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6809,121 +6607,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="447" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" s="483"/>
-      <c r="C60" s="483"/>
-      <c r="D60" s="484"/>
-      <c r="E60" s="486"/>
-      <c r="F60" s="483"/>
-      <c r="G60" s="483"/>
-      <c r="H60" s="483"/>
-      <c r="I60" s="483"/>
-      <c r="J60" s="483"/>
-      <c r="K60" s="483"/>
-      <c r="L60" s="483"/>
-      <c r="M60" s="484"/>
-      <c r="N60" s="487" t="s">
-        <v>97</v>
-      </c>
-      <c r="O60" s="488"/>
-      <c r="P60" s="488"/>
-      <c r="Q60" s="488"/>
-      <c r="R60" s="489"/>
-      <c r="S60" s="487" t="s">
-        <v>71</v>
-      </c>
-      <c r="T60" s="488"/>
-      <c r="U60" s="488"/>
-      <c r="V60" s="488"/>
-      <c r="W60" s="488"/>
-      <c r="X60" s="488"/>
-      <c r="Y60" s="488"/>
-      <c r="Z60" s="488"/>
-      <c r="AA60" s="489"/>
+      <c r="A60" s="325" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="333" t="s">
+        <v>87</v>
+      </c>
+      <c r="O60" s="334"/>
+      <c r="P60" s="334"/>
+      <c r="Q60" s="334"/>
+      <c r="R60" s="335"/>
+      <c r="S60" s="333" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" s="334"/>
+      <c r="U60" s="334"/>
+      <c r="V60" s="334"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="334"/>
+      <c r="Y60" s="334"/>
+      <c r="Z60" s="334"/>
+      <c r="AA60" s="335"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="483"/>
-      <c r="AE60" s="483"/>
-      <c r="AF60" s="483"/>
-      <c r="AG60" s="490"/>
+      <c r="AD60" s="326"/>
+      <c r="AE60" s="326"/>
+      <c r="AF60" s="326"/>
+      <c r="AG60" s="339"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="485"/>
-      <c r="B61" s="435"/>
-      <c r="C61" s="435"/>
-      <c r="D61" s="475"/>
-      <c r="E61" s="434"/>
-      <c r="F61" s="435"/>
-      <c r="G61" s="435"/>
-      <c r="H61" s="435"/>
-      <c r="I61" s="435"/>
-      <c r="J61" s="435"/>
-      <c r="K61" s="435"/>
-      <c r="L61" s="435"/>
-      <c r="M61" s="475"/>
-      <c r="N61" s="479"/>
-      <c r="O61" s="480"/>
-      <c r="P61" s="480"/>
-      <c r="Q61" s="480"/>
-      <c r="R61" s="481"/>
-      <c r="S61" s="479"/>
-      <c r="T61" s="480"/>
-      <c r="U61" s="480"/>
-      <c r="V61" s="480"/>
-      <c r="W61" s="480"/>
-      <c r="X61" s="480"/>
-      <c r="Y61" s="480"/>
-      <c r="Z61" s="480"/>
-      <c r="AA61" s="481"/>
-      <c r="AB61" s="361"/>
-      <c r="AC61" s="361"/>
-      <c r="AD61" s="361"/>
-      <c r="AE61" s="361"/>
-      <c r="AF61" s="361"/>
-      <c r="AG61" s="362"/>
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="336"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="338"/>
+      <c r="S61" s="336"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="337"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="337"/>
+      <c r="X61" s="337"/>
+      <c r="Y61" s="337"/>
+      <c r="Z61" s="337"/>
+      <c r="AA61" s="338"/>
+      <c r="AB61" s="340"/>
+      <c r="AC61" s="340"/>
+      <c r="AD61" s="340"/>
+      <c r="AE61" s="340"/>
+      <c r="AF61" s="340"/>
+      <c r="AG61" s="341"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="491" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="492"/>
-      <c r="C62" s="492"/>
-      <c r="D62" s="492"/>
-      <c r="E62" s="492"/>
-      <c r="F62" s="492"/>
-      <c r="G62" s="492"/>
-      <c r="H62" s="492"/>
-      <c r="I62" s="492"/>
-      <c r="J62" s="492"/>
-      <c r="K62" s="492"/>
-      <c r="L62" s="492"/>
-      <c r="M62" s="492"/>
-      <c r="N62" s="492"/>
-      <c r="O62" s="492"/>
-      <c r="P62" s="492"/>
-      <c r="Q62" s="492"/>
-      <c r="R62" s="492"/>
-      <c r="S62" s="492"/>
-      <c r="T62" s="492"/>
-      <c r="U62" s="492"/>
-      <c r="V62" s="492"/>
-      <c r="W62" s="492"/>
-      <c r="X62" s="492"/>
-      <c r="Y62" s="492"/>
-      <c r="Z62" s="492"/>
-      <c r="AA62" s="493"/>
-      <c r="AB62" s="375"/>
-      <c r="AC62" s="375"/>
-      <c r="AD62" s="375"/>
-      <c r="AE62" s="375"/>
-      <c r="AF62" s="375"/>
-      <c r="AG62" s="473"/>
+      <c r="A62" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="345"/>
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="345"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="345"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="345"/>
+      <c r="O62" s="345"/>
+      <c r="P62" s="345"/>
+      <c r="Q62" s="345"/>
+      <c r="R62" s="345"/>
+      <c r="S62" s="345"/>
+      <c r="T62" s="345"/>
+      <c r="U62" s="345"/>
+      <c r="V62" s="345"/>
+      <c r="W62" s="345"/>
+      <c r="X62" s="345"/>
+      <c r="Y62" s="345"/>
+      <c r="Z62" s="345"/>
+      <c r="AA62" s="346"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="343"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>
@@ -6933,34 +6731,32 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AB61:AG62"/>
-    <mergeCell ref="A62:AA62"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:R54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="W53:AG54"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="E11:R12"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="A5:AA7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="E8:AG8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="E13:R14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
     <mergeCell ref="AB15:AG15"/>
     <mergeCell ref="B17:P19"/>
     <mergeCell ref="T41:AD41"/>
@@ -6977,32 +6773,34 @@
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="B32:AF32"/>
     <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="L34:X34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="E13:R14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="A5:AA7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="E8:AG8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="E11:R12"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A4:AA4"/>
-    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:R54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="W53:AG54"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AB61:AG62"/>
+    <mergeCell ref="A62:AA62"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
